--- a/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_1_NP.xlsx
+++ b/Tesztdokumentáció/Elvégzett tesztek/Komponensek-Unit tesztek/Teszt_1_NP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Kilépési feltétel:</t>
   </si>
@@ -50,16 +50,13 @@
     <t>Tesztlépés:</t>
   </si>
   <si>
-    <t>2019.05.14-17</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>Négyesi Péter</t>
   </si>
   <si>
     <t>http://mitantermunk.infora.hu</t>
+  </si>
+  <si>
+    <t>NP_1</t>
   </si>
 </sst>
 </file>
@@ -614,7 +611,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -647,8 +644,8 @@
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
+      <c r="B3" s="13">
+        <v>43600</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -658,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
